--- a/엑셀/Gacha.xlsx
+++ b/엑셀/Gacha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <t>G</t>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>MasicMissile_Crystal_Num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapone_Crystal_Num</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +498,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,7 +533,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -551,6 +557,9 @@
         <v>1</v>
       </c>
       <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
         <v>100</v>
       </c>
     </row>
